--- a/Shablon/MSO-X 3034A.xlsx
+++ b/Shablon/MSO-X 3034A.xlsx
@@ -19,24 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="181">
   <si>
     <t>Заключение:_______________________________________________________________________</t>
-  </si>
-  <si>
-    <t>125424, г. Москва, Волоколамское шоссе, дом 90, стр. 23</t>
-  </si>
-  <si>
-    <t>СГМетр, лаборатория средств электрорадиотехнических измерений</t>
-  </si>
-  <si>
-    <t>Аттестат аккредитации № РОСС СОБ 3.00231.2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АО "Гос МКБ "Вымпел" им. И.И. Торопова </t>
-  </si>
-  <si>
-    <t>Тел. +7 (495) 491-05-31, 22-68, e-mail ogmetr@vympelmkb.com</t>
   </si>
   <si>
     <t>Параметр</t>
@@ -676,11 +661,14 @@
       <t>Fluke 9500В №276568182, Ч3-85/3R №903120485</t>
     </r>
   </si>
+  <si>
+    <t>TITLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1040,78 +1028,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1125,15 +1042,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1143,7 +1075,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1452,7 +1440,7 @@
   <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="A5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1465,74 +1453,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
+      <c r="A3" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
     </row>
     <row r="6" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -1546,29 +1526,29 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
+      <c r="A8" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="31"/>
@@ -1583,17 +1563,17 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
+      <c r="A10" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="33" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="35" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="34"/>
@@ -1601,13 +1581,13 @@
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
+      <c r="A11" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="40" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
@@ -1617,11 +1597,11 @@
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
+      <c r="A12" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="33"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
@@ -1631,13 +1611,13 @@
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
+      <c r="A13" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="37" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
@@ -1647,13 +1627,13 @@
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
+      <c r="A14" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="40" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
@@ -1663,13 +1643,13 @@
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
+      <c r="A15" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="33" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
@@ -1679,13 +1659,13 @@
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
+      <c r="A16" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="33" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
@@ -1719,12 +1699,12 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
+      <c r="A19" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
@@ -1733,96 +1713,96 @@
       <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="52"/>
+      <c r="A21" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="30"/>
-      <c r="E22" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="72"/>
+      <c r="E22" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="61"/>
+      <c r="G22" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="62"/>
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="72"/>
+      <c r="A23" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="61"/>
+      <c r="G23" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="62"/>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="72"/>
+      <c r="A24" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="62"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="72"/>
+      <c r="A25" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="72"/>
+      <c r="A26" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="62"/>
     </row>
     <row r="27" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -1837,8 +1817,8 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="84" t="s">
-        <v>184</v>
+      <c r="A28" s="50" t="s">
+        <v>179</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1864,7 +1844,7 @@
     </row>
     <row r="30" spans="1:10" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="6"/>
@@ -1878,7 +1858,7 @@
     </row>
     <row r="31" spans="1:10" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -1903,17 +1883,17 @@
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
+      <c r="A33" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" s="18" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1930,7 +1910,7 @@
     </row>
     <row r="35" spans="1:10" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1944,7 +1924,7 @@
     </row>
     <row r="36" spans="1:10" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1970,7 +1950,7 @@
     </row>
     <row r="38" spans="1:10" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1995,272 +1975,272 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="64"/>
+      <c r="A40" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="79"/>
+      <c r="C40" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="79"/>
       <c r="E40" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="59"/>
+      <c r="H40" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="80"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="69"/>
+      <c r="E41" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="69"/>
+      <c r="H41" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" s="75"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="69"/>
+      <c r="C42" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="77"/>
+      <c r="E42" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="69"/>
+      <c r="H42" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" s="75"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="52" t="s">
+      <c r="B43" s="69"/>
+      <c r="C43" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="69"/>
+      <c r="E43" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43" s="69"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="52"/>
-      <c r="H40" s="65" t="s">
+      <c r="B44" s="69"/>
+      <c r="C44" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="69"/>
+      <c r="E44" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="69"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="65"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="50" t="s">
+      <c r="B45" s="69"/>
+      <c r="C45" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="77"/>
+      <c r="E45" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" s="69"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50" t="s">
+      <c r="B46" s="69"/>
+      <c r="C46" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="46" t="s">
+      <c r="D46" s="69"/>
+      <c r="E46" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F46" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="G41" s="50"/>
-      <c r="H41" s="62" t="s">
+      <c r="G46" s="69"/>
+      <c r="H46" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="62"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="50" t="s">
+      <c r="I46" s="69"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="58" t="s">
+      <c r="B47" s="69"/>
+      <c r="C47" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="46" t="s">
+      <c r="D47" s="69"/>
+      <c r="E47" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="F42" s="50" t="s">
+      <c r="F47" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="G42" s="50"/>
-      <c r="H42" s="62" t="s">
+      <c r="G47" s="69"/>
+      <c r="H47" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="I42" s="62"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="50" t="s">
+      <c r="I47" s="69"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50" t="s">
+      <c r="B48" s="69"/>
+      <c r="C48" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="50"/>
-      <c r="E43" s="46" t="s">
+      <c r="D48" s="69"/>
+      <c r="E48" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F48" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50" t="s">
+      <c r="G48" s="69"/>
+      <c r="H48" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="I43" s="50"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="50" t="s">
+      <c r="I48" s="69"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50" t="s">
+      <c r="B49" s="69"/>
+      <c r="C49" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="46" t="s">
+      <c r="D49" s="69"/>
+      <c r="E49" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="F49" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50" t="s">
+      <c r="G49" s="69"/>
+      <c r="H49" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="I44" s="50"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="50" t="s">
+      <c r="I49" s="75"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="58" t="s">
+      <c r="B50" s="69"/>
+      <c r="C50" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="58"/>
-      <c r="E45" s="46" t="s">
+      <c r="D50" s="69"/>
+      <c r="E50" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="F45" s="50" t="s">
+      <c r="F50" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50" t="s">
+      <c r="G50" s="77"/>
+      <c r="H50" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="I45" s="50"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="50" t="s">
+      <c r="I50" s="77"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50" t="s">
+      <c r="B51" s="69"/>
+      <c r="C51" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="50"/>
-      <c r="E46" s="46" t="s">
+      <c r="D51" s="69"/>
+      <c r="E51" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="F46" s="50" t="s">
+      <c r="F51" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50" t="s">
+      <c r="G51" s="69"/>
+      <c r="H51" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="F47" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I47" s="50"/>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="50"/>
-      <c r="E48" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="F48" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I48" s="50"/>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="50"/>
-      <c r="E49" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49" s="50"/>
-      <c r="H49" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="I49" s="62"/>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="50"/>
-      <c r="E50" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="F50" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="I50" s="58"/>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="F51" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G51" s="50"/>
-      <c r="H51" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="I51" s="62"/>
+      <c r="I51" s="75"/>
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2285,272 +2265,272 @@
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="64"/>
-      <c r="C54" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="64"/>
+      <c r="A54" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="79"/>
+      <c r="C54" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="79"/>
       <c r="E54" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="59"/>
+      <c r="H54" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="80"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="69"/>
+      <c r="E55" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="69"/>
+      <c r="H55" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="75"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="69"/>
+      <c r="C56" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="77"/>
+      <c r="E56" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="F56" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="69"/>
+      <c r="H56" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I56" s="75"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="52" t="s">
+      <c r="B57" s="69"/>
+      <c r="C57" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="69"/>
+      <c r="E57" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="I57" s="69"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="G54" s="52"/>
-      <c r="H54" s="65" t="s">
+      <c r="B58" s="69"/>
+      <c r="C58" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="69"/>
+      <c r="E58" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="F58" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="I58" s="69"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="I54" s="65"/>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="50" t="s">
+      <c r="B59" s="69"/>
+      <c r="C59" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="77"/>
+      <c r="E59" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="F59" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" s="69"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50" t="s">
+      <c r="B60" s="69"/>
+      <c r="C60" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="50"/>
-      <c r="E55" s="46" t="s">
+      <c r="D60" s="69"/>
+      <c r="E60" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="F55" s="50" t="s">
+      <c r="F60" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="G55" s="50"/>
-      <c r="H55" s="62" t="s">
+      <c r="G60" s="69"/>
+      <c r="H60" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="I55" s="62"/>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="50" t="s">
+      <c r="I60" s="69"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="50"/>
-      <c r="C56" s="58" t="s">
+      <c r="B61" s="69"/>
+      <c r="C61" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="58"/>
-      <c r="E56" s="46" t="s">
+      <c r="D61" s="69"/>
+      <c r="E61" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="F56" s="50" t="s">
+      <c r="F61" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="G56" s="50"/>
-      <c r="H56" s="62" t="s">
+      <c r="G61" s="69"/>
+      <c r="H61" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="I56" s="62"/>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="50" t="s">
+      <c r="I61" s="69"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50" t="s">
+      <c r="B62" s="69"/>
+      <c r="C62" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="50"/>
-      <c r="E57" s="46" t="s">
+      <c r="D62" s="69"/>
+      <c r="E62" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="50" t="s">
+      <c r="F62" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50" t="s">
+      <c r="G62" s="69"/>
+      <c r="H62" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="I57" s="50"/>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="50" t="s">
+      <c r="I62" s="69"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50" t="s">
+      <c r="B63" s="69"/>
+      <c r="C63" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="50"/>
-      <c r="E58" s="46" t="s">
+      <c r="D63" s="69"/>
+      <c r="E63" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="F58" s="50" t="s">
+      <c r="F63" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50" t="s">
+      <c r="G63" s="69"/>
+      <c r="H63" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="I58" s="50"/>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="50" t="s">
+      <c r="I63" s="75"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="58" t="s">
+      <c r="B64" s="69"/>
+      <c r="C64" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="58"/>
-      <c r="E59" s="46" t="s">
+      <c r="D64" s="69"/>
+      <c r="E64" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="50" t="s">
+      <c r="F64" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50" t="s">
+      <c r="G64" s="77"/>
+      <c r="H64" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="I59" s="50"/>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="50" t="s">
+      <c r="I64" s="77"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50" t="s">
+      <c r="B65" s="69"/>
+      <c r="C65" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="50"/>
-      <c r="E60" s="46" t="s">
+      <c r="D65" s="69"/>
+      <c r="E65" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="50" t="s">
+      <c r="F65" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50" t="s">
+      <c r="G65" s="69"/>
+      <c r="H65" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="I60" s="50"/>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D61" s="50"/>
-      <c r="E61" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="F61" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I61" s="50"/>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="50"/>
-      <c r="E62" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="F62" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I62" s="50"/>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="50"/>
-      <c r="E63" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="F63" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="G63" s="50"/>
-      <c r="H63" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="I63" s="62"/>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64" s="50"/>
-      <c r="E64" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="F64" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="I64" s="58"/>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B65" s="50"/>
-      <c r="C65" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="50"/>
-      <c r="E65" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="F65" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G65" s="50"/>
-      <c r="H65" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="I65" s="62"/>
+      <c r="I65" s="75"/>
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2575,272 +2555,272 @@
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="B68" s="64"/>
-      <c r="C68" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="D68" s="64"/>
+      <c r="A68" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="79"/>
+      <c r="C68" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="79"/>
       <c r="E68" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="59"/>
+      <c r="H68" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="80"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="69"/>
+      <c r="E69" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="F69" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" s="69"/>
+      <c r="H69" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="I69" s="75"/>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="69"/>
+      <c r="C70" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="77"/>
+      <c r="E70" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="F70" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" s="69"/>
+      <c r="H70" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I70" s="75"/>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F68" s="52" t="s">
+      <c r="B71" s="69"/>
+      <c r="C71" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" s="69"/>
+      <c r="E71" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="F71" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="G71" s="69"/>
+      <c r="H71" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="I71" s="69"/>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="G68" s="52"/>
-      <c r="H68" s="65" t="s">
+      <c r="B72" s="69"/>
+      <c r="C72" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="69"/>
+      <c r="E72" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="F72" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="G72" s="69"/>
+      <c r="H72" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="I72" s="69"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="I68" s="65"/>
-      <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="50" t="s">
+      <c r="B73" s="69"/>
+      <c r="C73" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="77"/>
+      <c r="E73" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="F73" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="G73" s="69"/>
+      <c r="H73" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="I73" s="69"/>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B69" s="50"/>
-      <c r="C69" s="50" t="s">
+      <c r="B74" s="69"/>
+      <c r="C74" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D69" s="50"/>
-      <c r="E69" s="46" t="s">
+      <c r="D74" s="69"/>
+      <c r="E74" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="F69" s="50" t="s">
+      <c r="F74" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="G69" s="50"/>
-      <c r="H69" s="62" t="s">
+      <c r="G74" s="69"/>
+      <c r="H74" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="I69" s="62"/>
-      <c r="J69" s="2"/>
-    </row>
-    <row r="70" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="50" t="s">
+      <c r="I74" s="69"/>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B70" s="50"/>
-      <c r="C70" s="58" t="s">
+      <c r="B75" s="69"/>
+      <c r="C75" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="58"/>
-      <c r="E70" s="46" t="s">
+      <c r="D75" s="69"/>
+      <c r="E75" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="F70" s="50" t="s">
+      <c r="F75" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="G70" s="50"/>
-      <c r="H70" s="62" t="s">
+      <c r="G75" s="69"/>
+      <c r="H75" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="I70" s="62"/>
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="50" t="s">
+      <c r="I75" s="69"/>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50" t="s">
+      <c r="B76" s="69"/>
+      <c r="C76" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="50"/>
-      <c r="E71" s="46" t="s">
+      <c r="D76" s="69"/>
+      <c r="E76" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="F71" s="50" t="s">
+      <c r="F76" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50" t="s">
+      <c r="G76" s="69"/>
+      <c r="H76" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="I71" s="50"/>
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="50" t="s">
+      <c r="I76" s="69"/>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="50"/>
-      <c r="C72" s="50" t="s">
+      <c r="B77" s="69"/>
+      <c r="C77" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D72" s="50"/>
-      <c r="E72" s="46" t="s">
+      <c r="D77" s="69"/>
+      <c r="E77" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="F72" s="50" t="s">
+      <c r="F77" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50" t="s">
+      <c r="G77" s="69"/>
+      <c r="H77" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="I72" s="50"/>
-      <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="50" t="s">
+      <c r="I77" s="75"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="50"/>
-      <c r="C73" s="58" t="s">
+      <c r="B78" s="69"/>
+      <c r="C78" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D73" s="58"/>
-      <c r="E73" s="46" t="s">
+      <c r="D78" s="69"/>
+      <c r="E78" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="F73" s="50" t="s">
+      <c r="F78" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50" t="s">
+      <c r="G78" s="77"/>
+      <c r="H78" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="I73" s="50"/>
-      <c r="J73" s="2"/>
-    </row>
-    <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="50" t="s">
+      <c r="I78" s="77"/>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="50"/>
-      <c r="C74" s="50" t="s">
+      <c r="B79" s="69"/>
+      <c r="C79" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D74" s="50"/>
-      <c r="E74" s="46" t="s">
+      <c r="D79" s="69"/>
+      <c r="E79" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="F74" s="50" t="s">
+      <c r="F79" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50" t="s">
+      <c r="G79" s="69"/>
+      <c r="H79" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="I74" s="50"/>
-      <c r="J74" s="2"/>
-    </row>
-    <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B75" s="50"/>
-      <c r="C75" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D75" s="50"/>
-      <c r="E75" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="F75" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I75" s="50"/>
-      <c r="J75" s="2"/>
-    </row>
-    <row r="76" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D76" s="50"/>
-      <c r="E76" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="F76" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I76" s="50"/>
-      <c r="J76" s="2"/>
-    </row>
-    <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B77" s="50"/>
-      <c r="C77" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D77" s="50"/>
-      <c r="E77" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="F77" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="G77" s="50"/>
-      <c r="H77" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="I77" s="62"/>
-      <c r="J77" s="2"/>
-    </row>
-    <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B78" s="50"/>
-      <c r="C78" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="D78" s="50"/>
-      <c r="E78" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="F78" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G78" s="58"/>
-      <c r="H78" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="I78" s="58"/>
-      <c r="J78" s="2"/>
-    </row>
-    <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D79" s="50"/>
-      <c r="E79" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="F79" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G79" s="50"/>
-      <c r="H79" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="I79" s="62"/>
+      <c r="I79" s="75"/>
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2865,267 +2845,267 @@
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="B82" s="64"/>
-      <c r="C82" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="D82" s="64"/>
+      <c r="A82" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="79"/>
+      <c r="C82" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="79"/>
       <c r="E82" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="59"/>
+      <c r="H82" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" s="80"/>
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" s="69"/>
+      <c r="C83" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="69"/>
+      <c r="E83" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="F83" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="G83" s="69"/>
+      <c r="H83" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="I83" s="75"/>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="69"/>
+      <c r="C84" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" s="77"/>
+      <c r="E84" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G84" s="69"/>
+      <c r="H84" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I84" s="75"/>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F82" s="52" t="s">
+      <c r="B85" s="69"/>
+      <c r="C85" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" s="69"/>
+      <c r="E85" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="F85" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="G85" s="69"/>
+      <c r="H85" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="I85" s="69"/>
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="G82" s="52"/>
-      <c r="H82" s="65" t="s">
+      <c r="B86" s="69"/>
+      <c r="C86" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="69"/>
+      <c r="E86" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="G86" s="69"/>
+      <c r="H86" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="I86" s="69"/>
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="I82" s="65"/>
-      <c r="J82" s="2"/>
-    </row>
-    <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="50" t="s">
+      <c r="B87" s="69"/>
+      <c r="C87" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="77"/>
+      <c r="E87" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="F87" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="G87" s="69"/>
+      <c r="H87" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="I87" s="69"/>
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="50"/>
-      <c r="C83" s="50" t="s">
+      <c r="B88" s="69"/>
+      <c r="C88" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D83" s="50"/>
-      <c r="E83" s="46" t="s">
+      <c r="D88" s="69"/>
+      <c r="E88" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="F83" s="50" t="s">
+      <c r="F88" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="G83" s="50"/>
-      <c r="H83" s="62" t="s">
+      <c r="G88" s="69"/>
+      <c r="H88" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="I83" s="62"/>
-      <c r="J83" s="2"/>
-    </row>
-    <row r="84" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="50" t="s">
+      <c r="I88" s="69"/>
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="58" t="s">
+      <c r="B89" s="69"/>
+      <c r="C89" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="58"/>
-      <c r="E84" s="49" t="s">
+      <c r="D89" s="69"/>
+      <c r="E89" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="F84" s="50" t="s">
+      <c r="F89" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="G84" s="50"/>
-      <c r="H84" s="62" t="s">
+      <c r="G89" s="69"/>
+      <c r="H89" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="I84" s="62"/>
-      <c r="J84" s="2"/>
-    </row>
-    <row r="85" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="50" t="s">
+      <c r="I89" s="69"/>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="50"/>
-      <c r="C85" s="50" t="s">
+      <c r="B90" s="69"/>
+      <c r="C90" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D85" s="50"/>
-      <c r="E85" s="49" t="s">
+      <c r="D90" s="69"/>
+      <c r="E90" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="F85" s="50" t="s">
+      <c r="F90" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="G85" s="50"/>
-      <c r="H85" s="50" t="s">
+      <c r="G90" s="69"/>
+      <c r="H90" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="I85" s="50"/>
-      <c r="J85" s="2"/>
-    </row>
-    <row r="86" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="50" t="s">
+      <c r="I90" s="69"/>
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="50"/>
-      <c r="C86" s="50" t="s">
+      <c r="B91" s="69"/>
+      <c r="C91" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D86" s="50"/>
-      <c r="E86" s="49" t="s">
+      <c r="D91" s="69"/>
+      <c r="E91" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="F86" s="50" t="s">
+      <c r="F91" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="G86" s="50"/>
-      <c r="H86" s="50" t="s">
+      <c r="G91" s="69"/>
+      <c r="H91" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="I86" s="50"/>
-      <c r="J86" s="2"/>
-    </row>
-    <row r="87" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="50" t="s">
+      <c r="I91" s="75"/>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="50"/>
-      <c r="C87" s="58" t="s">
+      <c r="B92" s="69"/>
+      <c r="C92" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D87" s="58"/>
-      <c r="E87" s="49" t="s">
+      <c r="D92" s="69"/>
+      <c r="E92" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="F87" s="50" t="s">
+      <c r="F92" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="G87" s="50"/>
-      <c r="H87" s="50" t="s">
+      <c r="G92" s="77"/>
+      <c r="H92" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="I87" s="50"/>
-      <c r="J87" s="2"/>
-    </row>
-    <row r="88" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="50" t="s">
+      <c r="I92" s="77"/>
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="B88" s="50"/>
-      <c r="C88" s="50" t="s">
+      <c r="B93" s="69"/>
+      <c r="C93" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D88" s="50"/>
-      <c r="E88" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="F88" s="50" t="s">
+      <c r="D93" s="69"/>
+      <c r="E93" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="G88" s="50"/>
-      <c r="H88" s="50" t="s">
+      <c r="G93" s="69"/>
+      <c r="H93" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="I88" s="50"/>
-      <c r="J88" s="2"/>
-    </row>
-    <row r="89" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B89" s="50"/>
-      <c r="C89" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D89" s="50"/>
-      <c r="E89" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="F89" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="G89" s="50"/>
-      <c r="H89" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I89" s="50"/>
-      <c r="J89" s="2"/>
-    </row>
-    <row r="90" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B90" s="50"/>
-      <c r="C90" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D90" s="50"/>
-      <c r="E90" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="F90" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="G90" s="50"/>
-      <c r="H90" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I90" s="50"/>
-      <c r="J90" s="2"/>
-    </row>
-    <row r="91" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B91" s="50"/>
-      <c r="C91" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D91" s="50"/>
-      <c r="E91" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="F91" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="G91" s="50"/>
-      <c r="H91" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="I91" s="62"/>
-      <c r="J91" s="2"/>
-    </row>
-    <row r="92" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B92" s="50"/>
-      <c r="C92" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="D92" s="50"/>
-      <c r="E92" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="F92" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G92" s="58"/>
-      <c r="H92" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="I92" s="58"/>
-      <c r="J92" s="2"/>
-    </row>
-    <row r="93" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B93" s="50"/>
-      <c r="C93" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D93" s="50"/>
-      <c r="E93" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="F93" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G93" s="50"/>
-      <c r="H93" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="I93" s="62"/>
+      <c r="I93" s="75"/>
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3141,17 +3121,17 @@
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="1:10" s="18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="B95" s="59"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="59"/>
-      <c r="E95" s="59"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="59"/>
-      <c r="H95" s="59"/>
-      <c r="I95" s="59"/>
+      <c r="A95" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="76"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="76"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="76"/>
+      <c r="G95" s="76"/>
+      <c r="H95" s="76"/>
+      <c r="I95" s="76"/>
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3167,17 +3147,17 @@
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="1:10" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97" s="59"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="59"/>
-      <c r="H97" s="59"/>
-      <c r="I97" s="59"/>
+      <c r="A97" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="76"/>
+      <c r="C97" s="76"/>
+      <c r="D97" s="76"/>
+      <c r="E97" s="76"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="76"/>
+      <c r="H97" s="76"/>
+      <c r="I97" s="76"/>
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3194,20 +3174,20 @@
     </row>
     <row r="99" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B99" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C99" s="52"/>
-      <c r="D99" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="E99" s="52"/>
-      <c r="F99" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="G99" s="52"/>
+        <v>75</v>
+      </c>
+      <c r="B99" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" s="59"/>
+      <c r="D99" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E99" s="59"/>
+      <c r="F99" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="G99" s="59"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
@@ -3216,18 +3196,18 @@
       <c r="A100" s="47">
         <v>1</v>
       </c>
-      <c r="B100" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="C100" s="61"/>
-      <c r="D100" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="E100" s="60"/>
-      <c r="F100" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="G100" s="52"/>
+      <c r="B100" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="C100" s="74"/>
+      <c r="D100" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="E100" s="73"/>
+      <c r="F100" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="G100" s="59"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
@@ -3236,16 +3216,16 @@
       <c r="A101" s="47">
         <v>2</v>
       </c>
-      <c r="B101" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="C101" s="61"/>
-      <c r="D101" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="E101" s="60"/>
-      <c r="F101" s="52"/>
-      <c r="G101" s="52"/>
+      <c r="B101" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="C101" s="74"/>
+      <c r="D101" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="E101" s="73"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="59"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
@@ -3254,16 +3234,16 @@
       <c r="A102" s="47">
         <v>3</v>
       </c>
-      <c r="B102" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="C102" s="61"/>
-      <c r="D102" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="E102" s="60"/>
-      <c r="F102" s="52"/>
-      <c r="G102" s="52"/>
+      <c r="B102" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="C102" s="74"/>
+      <c r="D102" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="E102" s="73"/>
+      <c r="F102" s="59"/>
+      <c r="G102" s="59"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
@@ -3272,16 +3252,16 @@
       <c r="A103" s="47">
         <v>4</v>
       </c>
-      <c r="B103" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="C103" s="61"/>
-      <c r="D103" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="E103" s="60"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="52"/>
+      <c r="B103" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="C103" s="74"/>
+      <c r="D103" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="E103" s="73"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="59"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
@@ -3300,7 +3280,7 @@
     </row>
     <row r="105" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
@@ -3326,82 +3306,82 @@
     </row>
     <row r="107" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B107" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="C107" s="52"/>
-      <c r="D107" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="E107" s="52"/>
-      <c r="F107" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="55"/>
-      <c r="I107" s="55"/>
+        <v>75</v>
+      </c>
+      <c r="B107" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C107" s="59"/>
+      <c r="D107" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="G107" s="59"/>
+      <c r="H107" s="72"/>
+      <c r="I107" s="72"/>
       <c r="J107" s="2"/>
     </row>
     <row r="108" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="27">
         <v>1</v>
       </c>
-      <c r="B108" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C108" s="52"/>
-      <c r="D108" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="E108" s="52"/>
-      <c r="F108" s="50"/>
-      <c r="G108" s="50"/>
-      <c r="H108" s="55"/>
-      <c r="I108" s="55"/>
+      <c r="B108" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C108" s="59"/>
+      <c r="D108" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="E108" s="59"/>
+      <c r="F108" s="69"/>
+      <c r="G108" s="69"/>
+      <c r="H108" s="72"/>
+      <c r="I108" s="72"/>
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="27">
         <v>2</v>
       </c>
-      <c r="B109" s="52"/>
-      <c r="C109" s="52"/>
-      <c r="D109" s="52"/>
-      <c r="E109" s="52"/>
-      <c r="F109" s="50"/>
-      <c r="G109" s="50"/>
-      <c r="H109" s="55"/>
-      <c r="I109" s="55"/>
+      <c r="B109" s="59"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="59"/>
+      <c r="E109" s="59"/>
+      <c r="F109" s="69"/>
+      <c r="G109" s="69"/>
+      <c r="H109" s="72"/>
+      <c r="I109" s="72"/>
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="27">
         <v>3</v>
       </c>
-      <c r="B110" s="52"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="52"/>
-      <c r="E110" s="52"/>
-      <c r="F110" s="50"/>
-      <c r="G110" s="50"/>
-      <c r="H110" s="55"/>
-      <c r="I110" s="55"/>
+      <c r="B110" s="59"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="59"/>
+      <c r="F110" s="69"/>
+      <c r="G110" s="69"/>
+      <c r="H110" s="72"/>
+      <c r="I110" s="72"/>
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="27">
         <v>4</v>
       </c>
-      <c r="B111" s="52"/>
-      <c r="C111" s="52"/>
-      <c r="D111" s="52"/>
-      <c r="E111" s="52"/>
-      <c r="F111" s="50"/>
-      <c r="G111" s="50"/>
-      <c r="H111" s="55"/>
-      <c r="I111" s="55"/>
+      <c r="B111" s="59"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="69"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="72"/>
+      <c r="I111" s="72"/>
       <c r="J111" s="2"/>
     </row>
     <row r="112" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3417,18 +3397,18 @@
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="B113" s="57"/>
-      <c r="C113" s="57"/>
-      <c r="D113" s="57"/>
-      <c r="E113" s="57"/>
-      <c r="F113" s="57"/>
-      <c r="G113" s="57"/>
-      <c r="H113" s="57"/>
-      <c r="I113" s="57"/>
-      <c r="J113" s="57"/>
+      <c r="A113" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B113" s="71"/>
+      <c r="C113" s="71"/>
+      <c r="D113" s="71"/>
+      <c r="E113" s="71"/>
+      <c r="F113" s="71"/>
+      <c r="G113" s="71"/>
+      <c r="H113" s="71"/>
+      <c r="I113" s="71"/>
+      <c r="J113" s="71"/>
     </row>
     <row r="114" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="25"/>
@@ -3443,18 +3423,18 @@
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="B115" s="57"/>
-      <c r="C115" s="57"/>
-      <c r="D115" s="57"/>
-      <c r="E115" s="57"/>
-      <c r="F115" s="57"/>
-      <c r="G115" s="57"/>
-      <c r="H115" s="57"/>
-      <c r="I115" s="57"/>
-      <c r="J115" s="57"/>
+      <c r="A115" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B115" s="71"/>
+      <c r="C115" s="71"/>
+      <c r="D115" s="71"/>
+      <c r="E115" s="71"/>
+      <c r="F115" s="71"/>
+      <c r="G115" s="71"/>
+      <c r="H115" s="71"/>
+      <c r="I115" s="71"/>
+      <c r="J115" s="71"/>
     </row>
     <row r="116" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="25"/>
@@ -3469,120 +3449,120 @@
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="B117" s="51"/>
-      <c r="C117" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D117" s="52"/>
-      <c r="E117" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="F117" s="52"/>
-      <c r="G117" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="H117" s="52"/>
+      <c r="A117" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117" s="70"/>
+      <c r="C117" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="D117" s="59"/>
+      <c r="E117" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="F117" s="59"/>
+      <c r="G117" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="H117" s="59"/>
       <c r="I117" s="22"/>
       <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="B118" s="51"/>
-      <c r="C118" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="D118" s="51"/>
-      <c r="E118" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="F118" s="52"/>
-      <c r="G118" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="H118" s="56"/>
+      <c r="A118" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B118" s="70"/>
+      <c r="C118" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D118" s="70"/>
+      <c r="E118" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="F118" s="59"/>
+      <c r="G118" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="H118" s="55"/>
       <c r="I118" s="22"/>
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="B119" s="51"/>
-      <c r="C119" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="D119" s="51"/>
-      <c r="E119" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="F119" s="52"/>
-      <c r="G119" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="H119" s="56"/>
+      <c r="A119" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B119" s="70"/>
+      <c r="C119" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D119" s="70"/>
+      <c r="E119" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F119" s="59"/>
+      <c r="G119" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="H119" s="55"/>
       <c r="I119" s="22"/>
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="51" t="s">
+      <c r="A120" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B120" s="70"/>
+      <c r="C120" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="D120" s="70"/>
+      <c r="E120" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="F120" s="59"/>
+      <c r="G120" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="B120" s="51"/>
-      <c r="C120" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="D120" s="51"/>
-      <c r="E120" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="F120" s="52"/>
-      <c r="G120" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="H120" s="56"/>
+      <c r="H120" s="55"/>
       <c r="I120" s="22"/>
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="53"/>
-      <c r="B121" s="53"/>
-      <c r="C121" s="54"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="54"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="55"/>
-      <c r="H121" s="55"/>
+      <c r="A121" s="83"/>
+      <c r="B121" s="83"/>
+      <c r="C121" s="84"/>
+      <c r="D121" s="84"/>
+      <c r="E121" s="84"/>
+      <c r="F121" s="84"/>
+      <c r="G121" s="72"/>
+      <c r="H121" s="72"/>
       <c r="I121" s="22"/>
       <c r="J121" s="2"/>
     </row>
     <row r="122" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="B122" s="57"/>
-      <c r="C122" s="57"/>
-      <c r="D122" s="57"/>
-      <c r="E122" s="57"/>
-      <c r="F122" s="57"/>
-      <c r="G122" s="57"/>
-      <c r="H122" s="57"/>
-      <c r="I122" s="57"/>
-      <c r="J122" s="57"/>
+      <c r="A122" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="B122" s="71"/>
+      <c r="C122" s="71"/>
+      <c r="D122" s="71"/>
+      <c r="E122" s="71"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="71"/>
+      <c r="H122" s="71"/>
+      <c r="I122" s="71"/>
+      <c r="J122" s="71"/>
     </row>
     <row r="123" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="53"/>
-      <c r="B123" s="53"/>
-      <c r="C123" s="54"/>
-      <c r="D123" s="54"/>
-      <c r="E123" s="54"/>
-      <c r="F123" s="54"/>
-      <c r="G123" s="55"/>
-      <c r="H123" s="55"/>
+      <c r="A123" s="83"/>
+      <c r="B123" s="83"/>
+      <c r="C123" s="84"/>
+      <c r="D123" s="84"/>
+      <c r="E123" s="84"/>
+      <c r="F123" s="84"/>
+      <c r="G123" s="72"/>
+      <c r="H123" s="72"/>
       <c r="I123" s="22"/>
       <c r="J123" s="2"/>
     </row>
@@ -3625,20 +3605,20 @@
       <c r="J126" s="2"/>
     </row>
     <row r="127" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127" s="77"/>
+      <c r="A127" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B127" s="54"/>
       <c r="C127" s="43"/>
       <c r="D127" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="E127" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="F127" s="76"/>
+        <v>123</v>
+      </c>
+      <c r="E127" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F127" s="53"/>
       <c r="G127" s="45" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H127" s="39"/>
       <c r="I127" s="39"/>
@@ -3648,10 +3628,10 @@
     <row r="129" spans="1:4" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="41"/>
       <c r="B129" s="41" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C129" s="42" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D129" s="42"/>
     </row>
@@ -3662,6 +3642,264 @@
     <row r="134" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="282">
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="A122:J122"/>
+    <mergeCell ref="D108:E111"/>
+    <mergeCell ref="B108:C111"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="A95:I95"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="F100:G103"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A113:J113"/>
+    <mergeCell ref="A115:J115"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A51:B51"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E127:F127"/>
     <mergeCell ref="A127:B127"/>
@@ -3686,264 +3924,6 @@
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A49:B49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A113:J113"/>
-    <mergeCell ref="A115:J115"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="A97:I97"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="F100:G103"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="A95:I95"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="A122:J122"/>
-    <mergeCell ref="D108:E111"/>
-    <mergeCell ref="B108:C111"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.35433070866141736" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
